--- a/data/trans_orig/P24E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F219207-E0CF-488D-9226-CCE9C2277B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FCC288-C04A-4C34-986B-A8E67AA916A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78958EB3-4460-4593-BBCD-5C385F4DA91E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08BF7EF5-5162-4275-A7E0-C258CE129928}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="552">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,1594 +76,1606 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>Entre 5 y 1 año</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>Hace más de 5 años</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>Entre 5 y 1 año</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>Hace más de 5 años</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>54,66%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
   </si>
   <si>
     <t>22,91%</t>
@@ -2093,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0FBE4C-889A-426F-979D-AF497B254995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4717A874-980F-44BA-A75A-9B53BD8C8F44}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2507,10 +2519,10 @@
         <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2537,13 @@
         <v>8483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2540,13 +2552,13 @@
         <v>6797</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2555,13 +2567,13 @@
         <v>15279</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2629,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2629,13 +2641,13 @@
         <v>25519</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2644,13 +2656,13 @@
         <v>32864</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2659,13 +2671,13 @@
         <v>58383</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2692,13 @@
         <v>57999</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2695,13 +2707,13 @@
         <v>61519</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2710,13 +2722,13 @@
         <v>119518</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2743,13 @@
         <v>18717</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2746,13 +2758,13 @@
         <v>17275</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -2761,13 +2773,13 @@
         <v>35992</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2835,13 +2847,13 @@
         <v>19412</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2850,13 +2862,13 @@
         <v>16840</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2865,13 +2877,13 @@
         <v>36251</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2898,13 @@
         <v>57838</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2901,13 +2913,13 @@
         <v>20204</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2916,13 +2928,13 @@
         <v>78041</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2949,13 @@
         <v>10321</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2952,13 +2964,13 @@
         <v>13823</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2967,13 +2979,13 @@
         <v>24143</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3041,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3041,13 +3053,13 @@
         <v>23105</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3056,13 +3068,13 @@
         <v>4859</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3071,13 +3083,13 @@
         <v>27963</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3104,13 @@
         <v>26946</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3107,13 +3119,13 @@
         <v>4393</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -3122,13 +3134,13 @@
         <v>31339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3155,13 @@
         <v>9549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3158,13 +3170,13 @@
         <v>2794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3173,13 +3185,13 @@
         <v>12343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3247,13 +3259,13 @@
         <v>14307</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3262,13 +3274,13 @@
         <v>2829</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3277,13 +3289,13 @@
         <v>17136</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3310,13 @@
         <v>13916</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3313,13 +3325,13 @@
         <v>1074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3328,13 +3340,13 @@
         <v>14989</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3361,13 @@
         <v>10143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3364,13 +3376,13 @@
         <v>1829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -3379,13 +3391,13 @@
         <v>11972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,16 +3462,16 @@
         <v>129</v>
       </c>
       <c r="D28" s="7">
-        <v>133766</v>
+        <v>133767</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>104</v>
@@ -3468,13 +3480,13 @@
         <v>109496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>233</v>
@@ -3483,13 +3495,13 @@
         <v>243263</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,16 +3513,16 @@
         <v>211</v>
       </c>
       <c r="D29" s="7">
-        <v>218349</v>
+        <v>218350</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -3519,13 +3531,13 @@
         <v>143085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>352</v>
@@ -3534,13 +3546,13 @@
         <v>361434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,16 +3564,16 @@
         <v>57</v>
       </c>
       <c r="D30" s="7">
-        <v>57212</v>
+        <v>57213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -3570,13 +3582,13 @@
         <v>43421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3585,13 +3597,13 @@
         <v>100634</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3615,7 @@
         <v>397</v>
       </c>
       <c r="D31" s="7">
-        <v>409328</v>
+        <v>409329</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -3647,7 +3659,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CBD690-43F1-474B-8812-AB6C78968A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD95469-4852-47E2-83F6-E1525B843F7D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3686,7 +3698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3793,13 +3805,13 @@
         <v>35348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3808,13 +3820,13 @@
         <v>40317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -3823,13 +3835,13 @@
         <v>75665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3856,13 @@
         <v>19073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3859,13 +3871,13 @@
         <v>15622</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3874,13 +3886,13 @@
         <v>34695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3907,13 @@
         <v>1854</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3910,13 +3922,13 @@
         <v>3079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3925,13 +3937,13 @@
         <v>4933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4011,13 @@
         <v>57816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4014,10 +4026,10 @@
         <v>66024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>233</v>
@@ -4035,7 +4047,7 @@
         <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4062,13 @@
         <v>69310</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4065,13 +4077,13 @@
         <v>59489</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -4080,13 +4092,13 @@
         <v>128799</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4113,13 @@
         <v>15301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4116,13 +4128,13 @@
         <v>11654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4131,13 +4143,13 @@
         <v>26955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,7 +4205,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4205,13 +4217,13 @@
         <v>54623</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4220,13 +4232,13 @@
         <v>52261</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -4235,13 +4247,13 @@
         <v>106884</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4268,13 @@
         <v>82818</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4271,13 +4283,13 @@
         <v>53430</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -4286,13 +4298,13 @@
         <v>136247</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4319,13 @@
         <v>16780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4322,13 +4334,13 @@
         <v>20773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4337,13 +4349,13 @@
         <v>37553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4411,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4411,13 +4423,13 @@
         <v>45948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4426,13 +4438,13 @@
         <v>45289</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4441,13 +4453,13 @@
         <v>91237</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4474,13 @@
         <v>76641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4480,10 +4492,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -4492,13 +4504,13 @@
         <v>139059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4525,13 @@
         <v>23306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4528,13 +4540,13 @@
         <v>23909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4543,13 +4555,13 @@
         <v>47215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4617,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4617,13 +4629,13 @@
         <v>33673</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4632,13 +4644,13 @@
         <v>14858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4647,13 +4659,13 @@
         <v>48532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4680,13 @@
         <v>39562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4683,13 +4695,13 @@
         <v>8364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4698,13 +4710,13 @@
         <v>47927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4731,13 @@
         <v>10255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4734,13 +4746,13 @@
         <v>2983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4749,13 +4761,13 @@
         <v>13239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4823,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4823,13 +4835,13 @@
         <v>12710</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -4838,7 +4850,7 @@
         <v>3800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>332</v>
@@ -4907,10 +4919,10 @@
         <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4937,13 @@
         <v>13839</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4940,13 +4952,13 @@
         <v>1962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -4955,13 +4967,13 @@
         <v>15801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5041,13 @@
         <v>240118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5044,13 +5056,13 @@
         <v>222549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5059,13 +5071,13 @@
         <v>462668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>298819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -5095,13 +5107,13 @@
         <v>202073</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>457</v>
@@ -5110,13 +5122,13 @@
         <v>500893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5143,13 @@
         <v>81334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -5146,13 +5158,13 @@
         <v>64361</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5161,13 +5173,13 @@
         <v>145695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5235,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D546AEB-CA9A-4FCA-8195-CD7589E63269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFDA7F0-6E22-4E54-9B65-5A933E6FD091}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5262,7 +5274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5369,13 +5381,13 @@
         <v>23607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5384,13 +5396,13 @@
         <v>22123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5399,13 +5411,13 @@
         <v>45729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5432,13 @@
         <v>14449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5435,13 +5447,13 @@
         <v>12110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5450,13 +5462,13 @@
         <v>26559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5483,13 @@
         <v>1007</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5492,7 +5504,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5501,13 +5513,13 @@
         <v>1007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5587,13 @@
         <v>28073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5590,13 +5602,13 @@
         <v>31580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5605,13 +5617,13 @@
         <v>59653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5638,13 @@
         <v>59307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5641,13 +5653,13 @@
         <v>45236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -5656,13 +5668,13 @@
         <v>104543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5689,13 @@
         <v>8893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5692,13 +5704,13 @@
         <v>10580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5707,13 +5719,13 @@
         <v>19474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,7 +5781,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5781,13 +5793,13 @@
         <v>29439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5796,13 +5808,13 @@
         <v>26196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5811,13 +5823,13 @@
         <v>55635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5844,13 @@
         <v>79964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5847,13 +5859,13 @@
         <v>45243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -5862,13 +5874,13 @@
         <v>125208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5895,13 @@
         <v>15621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5898,13 +5910,13 @@
         <v>18726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -5913,13 +5925,13 @@
         <v>34348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,7 +5987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5987,13 +5999,13 @@
         <v>22954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6002,13 +6014,13 @@
         <v>28864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6017,13 +6029,13 @@
         <v>51818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6050,13 @@
         <v>51069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -6053,13 +6065,13 @@
         <v>64333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -6068,13 +6080,13 @@
         <v>115402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6101,13 @@
         <v>43967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6104,13 +6116,13 @@
         <v>18816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -6119,13 +6131,13 @@
         <v>62783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,7 +6193,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6193,13 +6205,13 @@
         <v>16567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6208,13 +6220,13 @@
         <v>9789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -6223,13 +6235,13 @@
         <v>26356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6256,13 @@
         <v>46400</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -6259,13 +6271,13 @@
         <v>33019</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -6274,13 +6286,13 @@
         <v>79419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6307,13 @@
         <v>17340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6310,13 +6322,13 @@
         <v>12201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6325,13 +6337,13 @@
         <v>29541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6399,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6411,13 @@
         <v>10543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6414,13 +6426,13 @@
         <v>5161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -6429,13 +6441,13 @@
         <v>15704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6462,13 @@
         <v>21701</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6465,13 +6477,13 @@
         <v>7170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6480,13 +6492,13 @@
         <v>28872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6513,13 @@
         <v>7941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6516,13 +6528,13 @@
         <v>6209</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -6531,13 +6543,13 @@
         <v>14150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6617,13 @@
         <v>131182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>120</v>
@@ -6620,13 +6632,13 @@
         <v>123712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6635,13 +6647,13 @@
         <v>254894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6668,13 @@
         <v>272889</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -6671,10 +6683,10 @@
         <v>207111</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -6686,13 +6698,13 @@
         <v>480001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6719,13 @@
         <v>94770</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>545</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -6722,13 +6734,13 @@
         <v>66532</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6737,13 +6749,13 @@
         <v>161302</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,7 +6811,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FCC288-C04A-4C34-986B-A8E67AA916A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFC34E6-4CA6-46C5-A1ED-155FB1D80717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08BF7EF5-5162-4275-A7E0-C258CE129928}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40ADAFA5-6E8F-4E98-B27C-3E101B69E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="551">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,1624 +76,1621 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>Entre 5 y 1 año</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>Hace más de 5 años</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>Entre 5 y 1 año</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>Hace más de 5 años</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>56,79%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4717A874-980F-44BA-A75A-9B53BD8C8F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE0101-779B-4819-A54D-5DBCEB308039}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2519,10 +2516,10 @@
         <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2534,13 @@
         <v>8483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2552,13 +2549,13 @@
         <v>6797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2567,13 +2564,13 @@
         <v>15279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2626,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2641,13 +2638,13 @@
         <v>25519</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2656,13 +2653,13 @@
         <v>32864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -2671,13 +2668,13 @@
         <v>58383</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2689,13 @@
         <v>57999</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2707,7 +2704,7 @@
         <v>61519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>80</v>
@@ -3462,7 +3459,7 @@
         <v>129</v>
       </c>
       <c r="D28" s="7">
-        <v>133767</v>
+        <v>133766</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>176</v>
@@ -3513,7 +3510,7 @@
         <v>211</v>
       </c>
       <c r="D29" s="7">
-        <v>218350</v>
+        <v>218349</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>185</v>
@@ -3549,10 +3546,10 @@
         <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,16 +3561,16 @@
         <v>57</v>
       </c>
       <c r="D30" s="7">
-        <v>57213</v>
+        <v>57212</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -3582,13 +3579,13 @@
         <v>43421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3597,10 +3594,10 @@
         <v>100634</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>201</v>
@@ -3615,7 +3612,7 @@
         <v>397</v>
       </c>
       <c r="D31" s="7">
-        <v>409329</v>
+        <v>409328</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -3681,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD95469-4852-47E2-83F6-E1525B843F7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FBD5E-178D-4269-88D9-B2290DCD986F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3889,7 @@
         <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3904,13 @@
         <v>1854</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4029,10 +4026,10 @@
         <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -4041,13 +4038,13 @@
         <v>123840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4059,13 @@
         <v>69310</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4077,13 +4074,13 @@
         <v>59489</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -4092,13 +4089,13 @@
         <v>128799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4110,13 @@
         <v>15301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4128,13 +4125,13 @@
         <v>11654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4143,13 +4140,13 @@
         <v>26955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,7 +4202,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4217,13 +4214,13 @@
         <v>54623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4232,13 +4229,13 @@
         <v>52261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -4247,13 +4244,13 @@
         <v>106884</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4265,13 @@
         <v>82818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4283,13 +4280,13 @@
         <v>53430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -4298,13 +4295,13 @@
         <v>136247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4316,13 @@
         <v>16780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4334,13 +4331,13 @@
         <v>20773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4349,13 +4346,13 @@
         <v>37553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4420,13 @@
         <v>45948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4438,13 +4435,13 @@
         <v>45289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4453,13 +4450,13 @@
         <v>91237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4471,13 @@
         <v>76641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4492,10 +4489,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -4504,13 +4501,13 @@
         <v>139059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4522,13 @@
         <v>23306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4540,13 +4537,13 @@
         <v>23909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4555,13 +4552,13 @@
         <v>47215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,10 +4629,10 @@
         <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4644,13 +4641,13 @@
         <v>14858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4659,13 +4656,13 @@
         <v>48532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4677,13 @@
         <v>39562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4695,13 +4692,13 @@
         <v>8364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4710,13 +4707,13 @@
         <v>47927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4728,13 @@
         <v>10255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4746,13 +4743,13 @@
         <v>2983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4761,13 +4758,13 @@
         <v>13239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4832,13 @@
         <v>12710</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -4850,13 +4847,13 @@
         <v>3800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4865,13 +4862,13 @@
         <v>16510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4883,13 @@
         <v>11416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4901,13 +4898,13 @@
         <v>2750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4916,13 +4913,13 @@
         <v>14166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4934,13 @@
         <v>13839</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4952,13 +4949,13 @@
         <v>1962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -4967,13 +4964,13 @@
         <v>15801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5038,13 @@
         <v>240118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5056,13 +5053,13 @@
         <v>222549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5071,13 +5068,13 @@
         <v>462668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5089,13 @@
         <v>298819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -5107,13 +5104,13 @@
         <v>202073</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>457</v>
@@ -5122,13 +5119,13 @@
         <v>500893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5140,13 @@
         <v>81334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -5158,13 +5155,13 @@
         <v>64361</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5173,13 +5170,13 @@
         <v>145695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFDA7F0-6E22-4E54-9B65-5A933E6FD091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F9606B-19C2-4841-86E4-4030A146F0D4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5274,7 +5271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5381,13 +5378,13 @@
         <v>23607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5396,13 +5393,13 @@
         <v>22123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5411,13 +5408,13 @@
         <v>45729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +5432,10 @@
         <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5447,13 +5444,13 @@
         <v>12110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5462,13 +5459,13 @@
         <v>26559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5480,13 @@
         <v>1007</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5504,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5513,13 +5510,13 @@
         <v>1007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5584,13 @@
         <v>28073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5602,13 +5599,13 @@
         <v>31580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5617,13 +5614,13 @@
         <v>59653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5635,13 @@
         <v>59307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5653,13 +5650,13 @@
         <v>45236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -5668,13 +5665,13 @@
         <v>104543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5686,13 @@
         <v>8893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5704,13 +5701,13 @@
         <v>10580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5719,13 +5716,13 @@
         <v>19474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +5778,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5793,13 +5790,13 @@
         <v>29439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5808,13 +5805,13 @@
         <v>26196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5823,13 +5820,13 @@
         <v>55635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5841,13 @@
         <v>79964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5859,13 +5856,13 @@
         <v>45243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -5874,13 +5871,13 @@
         <v>125208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5892,13 @@
         <v>15621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5910,13 +5907,13 @@
         <v>18726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -5925,13 +5922,13 @@
         <v>34348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5996,13 @@
         <v>22954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6014,13 +6011,13 @@
         <v>28864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6029,13 +6026,13 @@
         <v>51818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6047,13 @@
         <v>51069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -6065,13 +6062,13 @@
         <v>64333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -6080,13 +6077,13 @@
         <v>115402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6098,13 @@
         <v>43967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6116,7 +6113,7 @@
         <v>18816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>471</v>
@@ -6131,7 +6128,7 @@
         <v>62783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>473</v>
@@ -6238,10 +6235,10 @@
         <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6253,13 @@
         <v>46400</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -6271,13 +6268,13 @@
         <v>33019</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -6286,13 +6283,13 @@
         <v>79419</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6304,13 @@
         <v>17340</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6337,13 +6334,13 @@
         <v>29541</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6408,13 @@
         <v>10543</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6426,13 +6423,13 @@
         <v>5161</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -6441,13 +6438,13 @@
         <v>15704</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6459,13 @@
         <v>21701</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6477,13 +6474,13 @@
         <v>7170</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6492,13 +6489,13 @@
         <v>28872</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6510,13 @@
         <v>7941</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6528,13 +6525,13 @@
         <v>6209</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -6543,13 +6540,13 @@
         <v>14150</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6614,13 @@
         <v>131182</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>120</v>
@@ -6632,13 +6629,13 @@
         <v>123712</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6647,13 +6644,13 @@
         <v>254894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>533</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6665,13 @@
         <v>272889</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -6683,13 +6680,13 @@
         <v>207111</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>17</v>
+        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>455</v>
@@ -6698,13 +6695,13 @@
         <v>480001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6716,13 @@
         <v>94770</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -6734,13 +6731,13 @@
         <v>66532</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6749,13 +6746,13 @@
         <v>161302</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFC34E6-4CA6-46C5-A1ED-155FB1D80717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E74FC5-06EC-4CDE-AADE-CC96062ECB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40ADAFA5-6E8F-4E98-B27C-3E101B69E7DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E453E1B6-BE0E-4509-9CE8-C28D47636FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="548">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -106,28 +106,28 @@
     <t>27,49%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>Hace más de 5 años</t>
@@ -145,13 +145,13 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>13,32%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>8,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -163,163 +163,166 @@
     <t>35,89%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>33,52%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>55,1%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>55,88%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -328,1369 +331,1357 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
     <t>55,04%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE0101-779B-4819-A54D-5DBCEB308039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D96BD58-59AE-4BAF-91AF-8E7E550BBC1F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2704,13 +2695,13 @@
         <v>61519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2719,13 +2710,13 @@
         <v>119518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2731,13 @@
         <v>18717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2755,13 +2746,13 @@
         <v>17275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -2770,13 +2761,13 @@
         <v>35992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2823,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2844,13 +2835,13 @@
         <v>19412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2859,13 +2850,13 @@
         <v>16840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2874,13 +2865,13 @@
         <v>36251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2886,13 @@
         <v>57838</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2910,13 +2901,13 @@
         <v>20204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2925,13 +2916,13 @@
         <v>78041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2937,13 @@
         <v>10321</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2961,13 +2952,13 @@
         <v>13823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2976,13 +2967,13 @@
         <v>24143</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3029,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3041,13 @@
         <v>23105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3065,13 +3056,13 @@
         <v>4859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3080,13 +3071,13 @@
         <v>27963</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3092,13 @@
         <v>26946</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3116,13 +3107,13 @@
         <v>4393</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -3131,13 +3122,13 @@
         <v>31339</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3143,13 @@
         <v>9549</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3167,13 +3158,13 @@
         <v>2794</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3182,13 +3173,13 @@
         <v>12343</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3235,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3256,13 +3247,13 @@
         <v>14307</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3271,13 +3262,13 @@
         <v>2829</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3286,13 +3277,13 @@
         <v>17136</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3298,13 @@
         <v>13916</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3322,13 +3313,13 @@
         <v>1074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3337,13 +3328,13 @@
         <v>14989</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3349,13 @@
         <v>10143</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3373,13 +3364,13 @@
         <v>1829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -3388,13 +3379,13 @@
         <v>11972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3453,13 @@
         <v>133766</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>104</v>
@@ -3477,13 +3468,13 @@
         <v>109496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>233</v>
@@ -3492,13 +3483,13 @@
         <v>243263</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3504,13 @@
         <v>218349</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -3528,13 +3519,13 @@
         <v>143085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>352</v>
@@ -3543,13 +3534,13 @@
         <v>361434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3555,13 @@
         <v>57212</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -3579,13 +3570,13 @@
         <v>43421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3594,13 +3585,13 @@
         <v>100634</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3647,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FBD5E-178D-4269-88D9-B2290DCD986F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F697D31-1CC7-44B1-81A3-E1A761322295}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3695,7 +3686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3802,13 +3793,13 @@
         <v>35348</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3817,13 +3808,13 @@
         <v>40317</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -3832,13 +3823,13 @@
         <v>75665</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3844,13 @@
         <v>19073</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3868,13 +3859,13 @@
         <v>15622</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3883,13 +3874,13 @@
         <v>34695</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3895,13 @@
         <v>1854</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3919,13 +3910,13 @@
         <v>3079</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3934,13 +3925,13 @@
         <v>4933</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3999,13 @@
         <v>57816</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4023,13 +4014,13 @@
         <v>66024</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -4038,13 +4029,13 @@
         <v>123840</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4050,13 @@
         <v>69310</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4074,13 +4065,13 @@
         <v>59489</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -4089,13 +4080,13 @@
         <v>128799</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4101,13 @@
         <v>15301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4125,13 +4116,13 @@
         <v>11654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4140,13 +4131,13 @@
         <v>26955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4205,13 @@
         <v>54623</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4229,13 +4220,13 @@
         <v>52261</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -4244,13 +4235,13 @@
         <v>106884</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4256,13 @@
         <v>82818</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4280,13 +4271,13 @@
         <v>53430</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -4295,13 +4286,13 @@
         <v>136247</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4307,13 @@
         <v>16780</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4331,13 +4322,13 @@
         <v>20773</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4346,13 +4337,13 @@
         <v>37553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4399,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4420,13 +4411,13 @@
         <v>45948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4435,13 +4426,13 @@
         <v>45289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4450,13 +4441,13 @@
         <v>91237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4462,13 @@
         <v>76641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4489,10 +4480,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -4501,13 +4492,13 @@
         <v>139059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4513,13 @@
         <v>23306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4537,13 +4528,13 @@
         <v>23909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4552,13 +4543,13 @@
         <v>47215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4605,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4626,13 +4617,13 @@
         <v>33673</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4641,13 +4632,13 @@
         <v>14858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4656,13 +4647,13 @@
         <v>48532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4668,13 @@
         <v>39562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4692,13 +4683,13 @@
         <v>8364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4707,13 +4698,13 @@
         <v>47927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4719,13 @@
         <v>10255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4743,13 +4734,13 @@
         <v>2983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4758,13 +4749,13 @@
         <v>13239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4811,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4823,13 @@
         <v>12710</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -4847,13 +4838,13 @@
         <v>3800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4862,13 +4853,13 @@
         <v>16510</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4874,13 @@
         <v>11416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4898,13 +4889,13 @@
         <v>2750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4913,13 +4904,13 @@
         <v>14166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4925,13 @@
         <v>13839</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4949,13 +4940,13 @@
         <v>1962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -4964,13 +4955,13 @@
         <v>15801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5029,13 @@
         <v>240118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5053,13 +5044,13 @@
         <v>222549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5068,13 +5059,13 @@
         <v>462668</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5080,13 @@
         <v>298819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -5104,13 +5095,13 @@
         <v>202073</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>53</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>457</v>
@@ -5119,13 +5110,13 @@
         <v>500893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5131,13 @@
         <v>81334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -5155,13 +5146,13 @@
         <v>64361</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5170,13 +5161,13 @@
         <v>145695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,7 +5223,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5254,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F9606B-19C2-4841-86E4-4030A146F0D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF7C8EE-80D5-4C95-B952-B7D7F74FDF2B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5271,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5378,13 +5369,13 @@
         <v>23607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5393,13 +5384,13 @@
         <v>22123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5408,13 +5399,13 @@
         <v>45729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5420,13 @@
         <v>14449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5444,13 +5435,13 @@
         <v>12110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5459,13 +5450,13 @@
         <v>26559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5471,13 @@
         <v>1007</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5501,7 +5492,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5510,13 +5501,13 @@
         <v>1007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5575,13 @@
         <v>28073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5599,13 +5590,13 @@
         <v>31580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5614,13 +5605,13 @@
         <v>59653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5626,13 @@
         <v>59307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5650,13 +5641,13 @@
         <v>45236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -5665,13 +5656,13 @@
         <v>104543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5677,13 @@
         <v>8893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5701,13 +5692,13 @@
         <v>10580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5716,13 +5707,13 @@
         <v>19474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5781,13 @@
         <v>29439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5805,13 +5796,13 @@
         <v>26196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5820,13 +5811,13 @@
         <v>55635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5832,13 @@
         <v>79964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5856,13 +5847,13 @@
         <v>45243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -5871,13 +5862,13 @@
         <v>125208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5883,13 @@
         <v>15621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5907,13 +5898,13 @@
         <v>18726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -5922,13 +5913,13 @@
         <v>34348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5975,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5996,13 +5987,13 @@
         <v>22954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6011,13 +6002,13 @@
         <v>28864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6026,13 +6017,13 @@
         <v>51818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6038,13 @@
         <v>51069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -6062,13 +6053,13 @@
         <v>64333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -6077,13 +6068,13 @@
         <v>115402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6089,13 @@
         <v>43967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6113,13 +6104,13 @@
         <v>18816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -6131,10 +6122,10 @@
         <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6181,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6193,13 @@
         <v>16567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6217,13 +6208,13 @@
         <v>9789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -6232,13 +6223,13 @@
         <v>26356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6244,13 @@
         <v>46400</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -6268,13 +6259,13 @@
         <v>33019</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -6283,13 +6274,13 @@
         <v>79419</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6295,13 @@
         <v>17340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6319,13 +6310,13 @@
         <v>12201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6334,13 +6325,13 @@
         <v>29541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,7 +6387,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6408,13 +6399,13 @@
         <v>10543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6423,13 +6414,13 @@
         <v>5161</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -6438,13 +6429,13 @@
         <v>15704</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6450,13 @@
         <v>21701</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6474,13 +6465,13 @@
         <v>7170</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6489,13 +6480,13 @@
         <v>28872</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6501,13 @@
         <v>7941</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6525,13 +6516,13 @@
         <v>6209</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -6540,13 +6531,13 @@
         <v>14150</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6605,13 @@
         <v>131182</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H28" s="7">
         <v>120</v>
@@ -6629,13 +6620,13 @@
         <v>123712</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6644,7 +6635,7 @@
         <v>254894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>530</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>531</v>
@@ -6686,7 +6677,7 @@
         <v>537</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="M29" s="7">
         <v>455</v>
@@ -6695,13 +6686,13 @@
         <v>480001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6707,13 @@
         <v>94770</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -6731,13 +6722,13 @@
         <v>66532</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6746,13 +6737,13 @@
         <v>161302</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6799,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E74FC5-06EC-4CDE-AADE-CC96062ECB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{421C9A45-6933-43D2-8E22-B862B6AE0E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E453E1B6-BE0E-4509-9CE8-C28D47636FD2}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{CCCA4EC4-3180-4E7E-9152-A6156BCD620F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="601">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Hace menos de 1 año</t>
@@ -157,7 +157,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>35,89%</t>
@@ -241,7 +241,7 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>24,96%</t>
@@ -325,7 +325,7 @@
     <t>22,83%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>22,17%</t>
@@ -409,7 +409,7 @@
     <t>25,31%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>38,77%</t>
@@ -487,339 +487,405 @@
     <t>27,51%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>50,99%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
     <t>38,08%</t>
   </si>
   <si>
@@ -928,9 +994,6 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
     <t>11,29%</t>
   </si>
   <si>
@@ -1024,73 +1087,127 @@
     <t>18,88%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>38,71%</t>
@@ -1534,82 +1651,124 @@
     <t>30,29%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>26,3%</t>
@@ -2093,8 +2252,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D96BD58-59AE-4BAF-91AF-8E7E550BBC1F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A319E48-9BB7-4E62-B6DF-A61818564C7F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3241,10 +3400,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>14307</v>
+        <v>9621</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>150</v>
@@ -3271,19 +3430,19 @@
         <v>155</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>17136</v>
+        <v>12451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,49 +3451,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>13916</v>
+        <v>10108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10108</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M25" s="7">
-        <v>16</v>
-      </c>
-      <c r="N25" s="7">
-        <v>14989</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,19 +3502,19 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>10143</v>
+        <v>6423</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3364,7 +3523,7 @@
         <v>1829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
@@ -3373,10 +3532,10 @@
         <v>169</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>11972</v>
+        <v>8252</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>170</v>
@@ -3394,10 +3553,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D27" s="7">
-        <v>38365</v>
+        <v>26152</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -3409,10 +3568,10 @@
         <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="7">
-        <v>5732</v>
+        <v>4658</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -3424,10 +3583,10 @@
         <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N27" s="7">
-        <v>44097</v>
+        <v>30811</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -3441,55 +3600,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>133766</v>
+        <v>4685</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>109496</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4685</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="7">
-        <v>233</v>
-      </c>
-      <c r="N28" s="7">
-        <v>243263</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3657,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>218349</v>
+        <v>3808</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1074</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H29" s="7">
-        <v>141</v>
-      </c>
-      <c r="I29" s="7">
-        <v>143085</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4881</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="M29" s="7">
-        <v>352</v>
-      </c>
-      <c r="N29" s="7">
-        <v>361434</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,49 +3708,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>57212</v>
+        <v>3719</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3719</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="H30" s="7">
-        <v>42</v>
-      </c>
-      <c r="I30" s="7">
-        <v>43421</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M30" s="7">
-        <v>99</v>
-      </c>
-      <c r="N30" s="7">
-        <v>100634</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,63 +3759,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
+        <v>12212</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1074</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>13286</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>129</v>
+      </c>
+      <c r="D32" s="7">
+        <v>133766</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="7">
+        <v>104</v>
+      </c>
+      <c r="I32" s="7">
+        <v>109496</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="7">
+        <v>233</v>
+      </c>
+      <c r="N32" s="7">
+        <v>243263</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>211</v>
+      </c>
+      <c r="D33" s="7">
+        <v>218349</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="7">
+        <v>141</v>
+      </c>
+      <c r="I33" s="7">
+        <v>143085</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="7">
+        <v>352</v>
+      </c>
+      <c r="N33" s="7">
+        <v>361434</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7">
+        <v>57212</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="7">
+        <v>42</v>
+      </c>
+      <c r="I34" s="7">
+        <v>43421</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="7">
+        <v>99</v>
+      </c>
+      <c r="N34" s="7">
+        <v>100634</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>397</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>409328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="7">
         <v>287</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>296002</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="7">
         <v>684</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>705330</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>200</v>
+      <c r="O35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3669,8 +4035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F697D31-1CC7-44B1-81A3-E1A761322295}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F8FA62-671A-4EFE-9B4C-5F6F75EBF141}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3686,7 +4052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3793,13 +4159,13 @@
         <v>35348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3808,13 +4174,13 @@
         <v>40317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -3823,13 +4189,13 @@
         <v>75665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +4210,13 @@
         <v>19073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3859,13 +4225,13 @@
         <v>15622</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3874,13 +4240,13 @@
         <v>34695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +4261,13 @@
         <v>1854</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3910,13 +4276,13 @@
         <v>3079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3925,13 +4291,13 @@
         <v>4933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4365,13 @@
         <v>57816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4014,13 +4380,13 @@
         <v>66024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -4029,13 +4395,13 @@
         <v>123840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4416,13 @@
         <v>69310</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4065,13 +4431,13 @@
         <v>59489</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -4080,13 +4446,13 @@
         <v>128799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4467,13 @@
         <v>15301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4116,13 +4482,13 @@
         <v>11654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4131,13 +4497,13 @@
         <v>26955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,16 +4568,16 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>54623</v>
+        <v>54622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4220,13 +4586,13 @@
         <v>52261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -4235,13 +4601,13 @@
         <v>106884</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,16 +4619,16 @@
         <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>82818</v>
+        <v>82817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4271,13 +4637,13 @@
         <v>53430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -4286,13 +4652,13 @@
         <v>136247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4673,13 @@
         <v>16780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4322,13 +4688,13 @@
         <v>20773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4337,13 +4703,13 @@
         <v>37553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4721,7 @@
         <v>143</v>
       </c>
       <c r="D15" s="7">
-        <v>154220</v>
+        <v>154219</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -4411,13 +4777,13 @@
         <v>45948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4426,13 +4792,13 @@
         <v>45289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4441,13 +4807,13 @@
         <v>91237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4828,13 @@
         <v>76641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4480,7 +4846,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>77</v>
@@ -4492,13 +4858,13 @@
         <v>139059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4879,13 @@
         <v>23306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4528,13 +4894,13 @@
         <v>23909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4543,13 +4909,13 @@
         <v>47215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,10 +4986,10 @@
         <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4632,13 +4998,13 @@
         <v>14858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4647,13 +5013,13 @@
         <v>48532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +5034,13 @@
         <v>39562</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4683,13 +5049,13 @@
         <v>8364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4698,13 +5064,13 @@
         <v>47927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +5085,13 @@
         <v>10255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4734,13 +5100,13 @@
         <v>2983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -4749,13 +5115,13 @@
         <v>13239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,19 +5183,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>12710</v>
+        <v>11668</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -4838,28 +5204,28 @@
         <v>3800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>16510</v>
+        <v>15468</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,19 +5234,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>11416</v>
+        <v>7110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4889,28 +5255,28 @@
         <v>2750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>14166</v>
+        <v>9860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,49 +5285,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>13839</v>
+        <v>5995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1962</v>
+        <v>957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>15801</v>
+        <v>6953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,10 +5336,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="7">
-        <v>37965</v>
+        <v>24773</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -4985,10 +5351,10 @@
         <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>8512</v>
+        <v>7507</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -5000,10 +5366,10 @@
         <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N27" s="7">
-        <v>46477</v>
+        <v>32280</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -5017,55 +5383,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>240118</v>
+        <v>1043</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>222549</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>462668</v>
+        <v>1043</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,49 +5440,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>298819</v>
+        <v>4306</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="H29" s="7">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>202073</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>500893</v>
+        <v>4306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +5491,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>81334</v>
+        <v>7844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H30" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>64361</v>
+        <v>1005</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>38</v>
       </c>
       <c r="M30" s="7">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>145695</v>
+        <v>8848</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,63 +5542,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13192</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1005</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>14197</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>227</v>
+      </c>
+      <c r="D32" s="7">
+        <v>240119</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H32" s="7">
+        <v>206</v>
+      </c>
+      <c r="I32" s="7">
+        <v>222549</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M32" s="7">
+        <v>433</v>
+      </c>
+      <c r="N32" s="7">
+        <v>462668</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>273</v>
+      </c>
+      <c r="D33" s="7">
+        <v>298820</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H33" s="7">
+        <v>184</v>
+      </c>
+      <c r="I33" s="7">
+        <v>202073</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M33" s="7">
+        <v>457</v>
+      </c>
+      <c r="N33" s="7">
+        <v>500893</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>69</v>
+      </c>
+      <c r="D34" s="7">
+        <v>81335</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H34" s="7">
+        <v>59</v>
+      </c>
+      <c r="I34" s="7">
+        <v>64361</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M34" s="7">
+        <v>128</v>
+      </c>
+      <c r="N34" s="7">
+        <v>145695</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>569</v>
       </c>
-      <c r="D31" s="7">
-        <v>620272</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>620273</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="7">
         <v>449</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>488983</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="7">
         <v>1018</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1109256</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>200</v>
+      <c r="O35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5245,8 +5818,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF7C8EE-80D5-4C95-B952-B7D7F74FDF2B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCE536D-33DF-45B2-B28A-57239C3864DD}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5262,7 +5835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5369,13 +5942,13 @@
         <v>23607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5384,13 +5957,13 @@
         <v>22123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -5399,13 +5972,13 @@
         <v>45729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5993,13 @@
         <v>14449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5435,13 +6008,13 @@
         <v>12110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5450,13 +6023,13 @@
         <v>26559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +6044,13 @@
         <v>1007</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5492,7 +6065,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5501,13 +6074,13 @@
         <v>1007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +6148,13 @@
         <v>28073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5590,13 +6163,13 @@
         <v>31580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5605,13 +6178,13 @@
         <v>59653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +6199,13 @@
         <v>59307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -5641,13 +6214,13 @@
         <v>45236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M9" s="7">
         <v>104</v>
@@ -5656,13 +6229,13 @@
         <v>104543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +6250,13 @@
         <v>8893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5692,13 +6265,13 @@
         <v>10580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5707,13 +6280,13 @@
         <v>19474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +6354,13 @@
         <v>29439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5796,13 +6369,13 @@
         <v>26196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -5811,13 +6384,13 @@
         <v>55635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +6405,13 @@
         <v>79964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5847,28 +6420,28 @@
         <v>45243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>125208</v>
+        <v>125207</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +6456,13 @@
         <v>15621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5898,28 +6471,28 @@
         <v>18726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>34348</v>
+        <v>34347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,7 +6534,7 @@
         <v>210</v>
       </c>
       <c r="N15" s="7">
-        <v>215190</v>
+        <v>215189</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -5987,13 +6560,13 @@
         <v>22954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6002,13 +6575,13 @@
         <v>28864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6017,13 +6590,13 @@
         <v>51818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6611,13 @@
         <v>51069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -6053,13 +6626,13 @@
         <v>64333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -6068,13 +6641,13 @@
         <v>115402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6662,13 @@
         <v>43967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6104,13 +6677,13 @@
         <v>18816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -6122,10 +6695,10 @@
         <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6766,13 @@
         <v>16567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6208,13 +6781,13 @@
         <v>9789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -6223,13 +6796,13 @@
         <v>26356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6817,13 @@
         <v>46400</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -6259,13 +6832,13 @@
         <v>33019</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -6274,13 +6847,13 @@
         <v>79419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6868,13 @@
         <v>17340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6310,13 +6883,13 @@
         <v>12201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6325,13 +6898,13 @@
         <v>29541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,19 +6966,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>10543</v>
+        <v>9779</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6414,28 +6987,28 @@
         <v>5161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>15704</v>
+        <v>14940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>361</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,49 +7017,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>21701</v>
+        <v>13382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>7170</v>
+        <v>5835</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>28872</v>
+        <v>19216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,49 +7068,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>7941</v>
+        <v>4604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>6209</v>
+        <v>2031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>14150</v>
+        <v>6635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,10 +7119,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D27" s="7">
-        <v>40186</v>
+        <v>27764</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -6561,10 +7134,10 @@
         <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="7">
-        <v>18540</v>
+        <v>13027</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -6576,10 +7149,10 @@
         <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N27" s="7">
-        <v>58726</v>
+        <v>40791</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -6593,55 +7166,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>131182</v>
+        <v>764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>123712</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>527</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>528</v>
+        <v>32</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="M28" s="7">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>254894</v>
+        <v>764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,49 +7223,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>272889</v>
+        <v>8319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="H29" s="7">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>207111</v>
+        <v>1336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>480001</v>
+        <v>9655</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,49 +7274,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>94770</v>
+        <v>3338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>372</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>542</v>
+        <v>330</v>
       </c>
       <c r="H30" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>66532</v>
+        <v>4177</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>544</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>545</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>161302</v>
+        <v>7515</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,63 +7325,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>15</v>
+      </c>
+      <c r="D31" s="7">
+        <v>12421</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5513</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="7">
+        <v>19</v>
+      </c>
+      <c r="N31" s="7">
+        <v>17935</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>122</v>
+      </c>
+      <c r="D32" s="7">
+        <v>131182</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H32" s="7">
+        <v>120</v>
+      </c>
+      <c r="I32" s="7">
+        <v>123712</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M32" s="7">
+        <v>242</v>
+      </c>
+      <c r="N32" s="7">
+        <v>254894</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>254</v>
+      </c>
+      <c r="D33" s="7">
+        <v>272889</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H33" s="7">
+        <v>201</v>
+      </c>
+      <c r="I33" s="7">
+        <v>207111</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="7">
+        <v>455</v>
+      </c>
+      <c r="N33" s="7">
+        <v>480001</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7">
+        <v>94770</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H34" s="7">
+        <v>63</v>
+      </c>
+      <c r="I34" s="7">
+        <v>66532</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M34" s="7">
+        <v>151</v>
+      </c>
+      <c r="N34" s="7">
+        <v>161302</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>464</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>498842</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="7">
         <v>384</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>397355</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="7">
         <v>848</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>896197</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>200</v>
+      <c r="O35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
